--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T12:56:07+00:00</t>
+    <t>2024-05-22T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:16:08+00:00</t>
+    <t>2024-05-22T14:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:26:25+00:00</t>
+    <t>2024-05-23T06:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:15:20+00:00</t>
+    <t>2024-05-23T06:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:28:06+00:00</t>
+    <t>2024-05-23T06:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:36:57+00:00</t>
+    <t>2024-05-23T06:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:53:44+00:00</t>
+    <t>2024-05-23T09:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T09:15:19+00:00</t>
+    <t>2024-05-23T10:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:22:08+00:00</t>
+    <t>2024-05-24T08:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2606,7 +2606,7 @@
     <t>MedicinalProductDefinition.domain.coding</t>
   </si>
   <si>
-    <t>https://ema.europa.eu/fhir/vs/domain</t>
+    <t>https://www.ages.at/fhir/domain</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.domain.text</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:36:03+00:00</t>
+    <t>2024-05-24T09:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -841,7 +841,7 @@
     <t>AdministrableProductDefinition.routeOfAdministration</t>
   </si>
   <si>
-    <t>Route of administration</t>
+    <t>The path by which the product is taken into or makes contact with the body (route of administration).</t>
   </si>
   <si>
     <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. RouteOfAdministration cannot be used when the 'formOf' product already uses MedicinalProductDefinition.route (and vice versa).</t>
@@ -1293,7 +1293,7 @@
     <t>Ingredient.role</t>
   </si>
   <si>
-    <t>Ingredient role</t>
+    <t>Purpose of the ingredient within the product, e.g. active, inactive (ingredient role)</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1460,6 +1460,9 @@
     <t>substancePharos</t>
   </si>
   <si>
+    <t>Substance</t>
+  </si>
+  <si>
     <t>Ingredient.substance.code.concept.coding:substancePharos.id</t>
   </si>
   <si>
@@ -1481,9 +1484,6 @@
     <t>Ingredient.substance.code.concept.coding.system</t>
   </si>
   <si>
-    <t>Substance</t>
-  </si>
-  <si>
     <t>Ingredient.substance.code.concept.coding:substancePharos.version</t>
   </si>
   <si>
@@ -1514,6 +1514,9 @@
     <t>substanceSMS</t>
   </si>
   <si>
+    <t>Active ingredient</t>
+  </si>
+  <si>
     <t>Ingredient.substance.code.concept.coding:substanceSMS.id</t>
   </si>
   <si>
@@ -1524,9 +1527,6 @@
   </si>
   <si>
     <t>Ingredient.substance.code.concept.coding:substanceSMS.system</t>
-  </si>
-  <si>
-    <t>Active ingredient</t>
   </si>
   <si>
     <t>https://spor.ema.europa.eu/v3/SubstanceDefinition</t>
@@ -1566,7 +1566,7 @@
     <t>Ingredient.substance.strength</t>
   </si>
   <si>
-    <t>Active ingredient strength &amp; unit</t>
+    <t>The quantity of substance, per presentation, or per volume or mass, and type of quantity (active ingredient strength &amp; unit)</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. The allowed repetitions do not represent different strengths, but are different representations - mathematically equivalent - of a single strength.</t>
@@ -1679,7 +1679,7 @@
     <t>Ingredient.substance.strength.referenceStrength.substance</t>
   </si>
   <si>
-    <t>Reference ingredient</t>
+    <t>Relevant reference substance (reference ingredient)</t>
   </si>
   <si>
     <t>Relevant reference substance.</t>
@@ -1692,7 +1692,7 @@
 RatioRangeQuantity</t>
   </si>
   <si>
-    <t>Reference ingredient strength &amp; unit</t>
+    <t>Strength expressed in terms of a reference substance (reference ingredient strength &amp; unit)</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance.</t>
@@ -2025,7 +2025,7 @@
     <t>RegulatedAuthorization.identifier</t>
   </si>
   <si>
-    <t>Authorization number</t>
+    <t>Business identifier for the authorization, typically assigned by the authorizing body (authorization number)</t>
   </si>
   <si>
     <t>RegulatedAuthorization.identifier.id</t>
@@ -2105,7 +2105,7 @@
     <t>RegulatedAuthorization.status</t>
   </si>
   <si>
-    <t>Authorization status</t>
+    <t>The status that is authorised e.g. approved. Intermediate states can be tracked with cases and applications (authorization status)</t>
   </si>
   <si>
     <t>preferred</t>
@@ -2197,7 +2197,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t>Authorization holder</t>
+    <t>The organization that has been granted this authorization, by the regulator (authorization holder)</t>
   </si>
   <si>
     <t>The organization that has been granted this authorization, by some authoritative body (the 'regulator').</t>
@@ -2588,7 +2588,7 @@
     <t>MedicinalProductDefinition.domain</t>
   </si>
   <si>
-    <t>Domain</t>
+    <t>If this medicine applies to human or veterinary uses (domain)</t>
   </si>
   <si>
     <t>Applicable domain for this product (e.g. human, veterinary).</t>
@@ -2651,7 +2651,7 @@
     <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm</t>
   </si>
   <si>
-    <t>Pharmaceutical dose form</t>
+    <t>The dose form for a single part product, or combined form of a multiple part product (pharmaceutical dose form)</t>
   </si>
   <si>
     <t>Dose forms for a product as a whole, considering all individual parts, but before any mixing</t>
@@ -2687,7 +2687,7 @@
     <t>MedicinalProductDefinition.legalStatusOfSupply</t>
   </si>
   <si>
-    <t>Prescription requirement state</t>
+    <t>The legal status of supply of the medicinal product as classified by the regulator (prescription requirement state)</t>
   </si>
   <si>
     <t>https://ema.europa.eu/fhir/vs/legalStatusForTheSupply</t>
@@ -3094,7 +3094,7 @@
     <t>MedicinalProductDefinition.name.productName</t>
   </si>
   <si>
-    <t>Authorization Name</t>
+    <t>The full product name (authorization name)</t>
   </si>
   <si>
     <t>The full product name.</t>
@@ -3483,7 +3483,7 @@
     <t>PackagedProductDefinition.identifier</t>
   </si>
   <si>
-    <t>Pharmaceutical registration number (Pharmazentralnummer (PZN))</t>
+    <t>A unique identifier for this package as whole - not for the content of the package (pharmaceutical registration number (Pharmazentralnummer (PZN)))</t>
   </si>
   <si>
     <t>PackagedProductDefinition.identifier.id</t>
@@ -3561,7 +3561,7 @@
     <t>PackagedProductDefinition.containedItemQuantity</t>
   </si>
   <si>
-    <t>Size / Weight of the package</t>
+    <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. See also packaging.containedItem.amount (size / weight of the package)</t>
   </si>
   <si>
     <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource.</t>
@@ -3725,7 +3725,7 @@
     <t>PackagedProductDefinition.marketingStatus</t>
   </si>
   <si>
-    <t>Delivery state of the package</t>
+    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated (delivery state of the package)</t>
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus.id</t>
@@ -3851,7 +3851,7 @@
     <t>PackagedProductDefinition.packaging.type</t>
   </si>
   <si>
-    <t>Package type container</t>
+    <t>The physical type of the container of the items (package type container)</t>
   </si>
   <si>
     <t>https://ema.europa.eu/fhir/vs/packaging</t>
@@ -17638,7 +17638,7 @@
         <v>325</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>326</v>
+        <v>463</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>327</v>
@@ -17716,10 +17716,10 @@
         <v>381</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -17819,10 +17819,10 @@
         <v>381</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -17924,10 +17924,10 @@
         <v>381</v>
       </c>
       <c r="B117" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C117" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>345</v>
@@ -18029,10 +18029,10 @@
         <v>381</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -18058,7 +18058,7 @@
         <v>96</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>351</v>
@@ -18589,7 +18589,7 @@
         <v>325</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>326</v>
+        <v>481</v>
       </c>
       <c r="N123" t="s" s="2">
         <v>327</v>
@@ -18667,10 +18667,10 @@
         <v>381</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -18770,10 +18770,10 @@
         <v>381</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -18875,10 +18875,10 @@
         <v>381</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>345</v>
@@ -18980,10 +18980,10 @@
         <v>381</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -19009,7 +19009,7 @@
         <v>96</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>485</v>
+        <v>350</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>351</v>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T09:29:16+00:00</t>
+    <t>2024-05-24T10:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:07:38+00:00</t>
+    <t>2024-05-24T10:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
+++ b/r5-AGES-MedicinalProduct-main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17427" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17428" uniqueCount="1359">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3197,6 +3197,12 @@
     <t>MedicinalProductDefinition.name.part.type</t>
   </si>
   <si>
+    <t>Identifying type for this part of the name (e.g. strength part)</t>
+  </si>
+  <si>
+    <t>Identifying type for this part of the name (e.g. strength part).</t>
+  </si>
+  <si>
     <t>Type of part of a name for a Medicinal Product.</t>
   </si>
   <si>
@@ -3212,6 +3218,12 @@
     <t>MedicinalProductDefinition.name.part.type.coding</t>
   </si>
   <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
     <t>https://www.ages.at/fhir/medicinalproduct/ValueSet/medicinalProductNamePartTypeVs</t>
   </si>
   <si>
@@ -3240,9 +3252,6 @@
   </si>
   <si>
     <t>Part name</t>
-  </si>
-  <si>
-    <t>Identifying type for this part of the name (e.g. strength part).</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -5575,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="163">
@@ -5583,7 +5592,7 @@
         <v>4</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="164">
@@ -5599,7 +5608,7 @@
         <v>8</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>1120</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="166">
@@ -5607,7 +5616,7 @@
         <v>10</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>1121</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="167">
@@ -5653,7 +5662,7 @@
         <v>21</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="173">
@@ -5689,7 +5698,7 @@
         <v>29</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="178">
@@ -5697,7 +5706,7 @@
         <v>31</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="179">
@@ -5737,7 +5746,7 @@
         <v>4</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>1340</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="184">
@@ -5753,7 +5762,7 @@
         <v>8</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>1341</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="186">
@@ -5849,7 +5858,7 @@
         <v>31</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>1342</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="199">
@@ -5870,10 +5879,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>1344</v>
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -45477,20 +45486,18 @@
         <v>76</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>215</v>
+        <v>1032</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O379" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="O379" s="2"/>
       <c r="P379" s="2"/>
       <c r="Q379" t="s" s="2">
         <v>76</v>
@@ -45518,10 +45525,10 @@
         <v>228</v>
       </c>
       <c r="Z379" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="AA379" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="AB379" t="s" s="2">
         <v>76</v>
@@ -45559,10 +45566,10 @@
         <v>786</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -45662,10 +45669,10 @@
         <v>786</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -45767,10 +45774,10 @@
         <v>786</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -45778,10 +45785,10 @@
       </c>
       <c r="F382" s="2"/>
       <c r="G382" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H382" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I382" t="s" s="2">
         <v>76</v>
@@ -45790,19 +45797,19 @@
         <v>76</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>325</v>
+        <v>1000</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>326</v>
+        <v>1039</v>
       </c>
       <c r="N382" t="s" s="2">
         <v>327</v>
       </c>
       <c r="O382" t="s" s="2">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="P382" t="s" s="2">
         <v>329</v>
@@ -45834,7 +45841,7 @@
       </c>
       <c r="Z382" s="2"/>
       <c r="AA382" t="s" s="2">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="AB382" t="s" s="2">
         <v>76</v>
@@ -45864,7 +45871,7 @@
         <v>76</v>
       </c>
       <c r="AK382" t="s" s="2">
-        <v>330</v>
+        <v>94</v>
       </c>
     </row>
     <row r="383">
@@ -45872,10 +45879,10 @@
         <v>786</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -45979,13 +45986,13 @@
         <v>786</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C384" t="s" s="2">
         <v>1019</v>
       </c>
       <c r="D384" t="s" s="2">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E384" t="s" s="2">
         <v>76</v>
@@ -46084,7 +46091,7 @@
         <v>786</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="C385" t="s" s="2">
         <v>1025</v>
@@ -46187,7 +46194,7 @@
         <v>786</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="C386" t="s" s="2">
         <v>1026</v>
@@ -46292,7 +46299,7 @@
         <v>786</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="C387" t="s" s="2">
         <v>1027</v>
@@ -46399,7 +46406,7 @@
         <v>786</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="C388" t="s" s="2">
         <v>1028</v>
@@ -46502,7 +46509,7 @@
         <v>786</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="C389" t="s" s="2">
         <v>1031</v>
@@ -46525,18 +46532,20 @@
         <v>76</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O389" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O389" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P389" s="2"/>
       <c r="Q389" t="s" s="2">
         <v>76</v>
@@ -46546,7 +46555,7 @@
         <v>76</v>
       </c>
       <c r="T389" t="s" s="2">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="U389" t="s" s="2">
         <v>76</v>
@@ -46564,10 +46573,10 @@
         <v>228</v>
       </c>
       <c r="Z389" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="AA389" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="AB389" t="s" s="2">
         <v>76</v>
@@ -46605,13 +46614,13 @@
         <v>786</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C390" t="s" s="2">
         <v>1019</v>
       </c>
       <c r="D390" t="s" s="2">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E390" t="s" s="2">
         <v>76</v>
@@ -46710,7 +46719,7 @@
         <v>786</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C391" t="s" s="2">
         <v>1025</v>
@@ -46813,7 +46822,7 @@
         <v>786</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C392" t="s" s="2">
         <v>1026</v>
@@ -46918,7 +46927,7 @@
         <v>786</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C393" t="s" s="2">
         <v>1027</v>
@@ -47025,7 +47034,7 @@
         <v>786</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="C394" t="s" s="2">
         <v>1028</v>
@@ -47128,7 +47137,7 @@
         <v>786</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C395" t="s" s="2">
         <v>1031</v>
@@ -47151,18 +47160,20 @@
         <v>76</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O395" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P395" s="2"/>
       <c r="Q395" t="s" s="2">
         <v>76</v>
@@ -47172,7 +47183,7 @@
         <v>76</v>
       </c>
       <c r="T395" t="s" s="2">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="U395" t="s" s="2">
         <v>76</v>
@@ -47190,10 +47201,10 @@
         <v>228</v>
       </c>
       <c r="Z395" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="AA395" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="AB395" t="s" s="2">
         <v>76</v>
@@ -47231,10 +47242,10 @@
         <v>786</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -47260,10 +47271,10 @@
         <v>240</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="O396" s="2"/>
       <c r="P396" s="2"/>
@@ -47314,7 +47325,7 @@
         <v>76</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>74</v>
@@ -47334,10 +47345,10 @@
         <v>786</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -47437,10 +47448,10 @@
         <v>786</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -47542,10 +47553,10 @@
         <v>786</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -47649,10 +47660,10 @@
         <v>786</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -47678,10 +47689,10 @@
         <v>165</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="O400" s="2"/>
       <c r="P400" s="2"/>
@@ -47732,7 +47743,7 @@
         <v>76</v>
       </c>
       <c r="AG400" t="s" s="2">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="AH400" t="s" s="2">
         <v>82</v>
@@ -47752,10 +47763,10 @@
         <v>786</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -47781,10 +47792,10 @@
         <v>165</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="N401" t="s" s="2">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="O401" s="2"/>
       <c r="P401" s="2"/>
@@ -47835,7 +47846,7 @@
         <v>76</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>74</v>
@@ -47855,10 +47866,10 @@
         <v>786</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -47884,10 +47895,10 @@
         <v>165</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="O402" s="2"/>
       <c r="P402" s="2"/>
@@ -47938,7 +47949,7 @@
         <v>76</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>82</v>
@@ -47958,10 +47969,10 @@
         <v>786</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -47987,10 +47998,10 @@
         <v>240</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="O403" s="2"/>
       <c r="P403" s="2"/>
@@ -48041,7 +48052,7 @@
         <v>76</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>74</v>
@@ -48061,10 +48072,10 @@
         <v>786</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -48164,10 +48175,10 @@
         <v>786</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -48269,10 +48280,10 @@
         <v>786</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -48376,10 +48387,10 @@
         <v>786</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -48402,13 +48413,13 @@
         <v>83</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="O407" s="2"/>
       <c r="P407" s="2"/>
@@ -48459,7 +48470,7 @@
         <v>76</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>82</v>
@@ -48479,10 +48490,10 @@
         <v>786</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -48508,10 +48519,10 @@
         <v>165</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
@@ -48544,25 +48555,25 @@
         <v>991</v>
       </c>
       <c r="AA408" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="AB408" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC408" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD408" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE408" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF408" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG408" t="s" s="2">
         <v>1085</v>
-      </c>
-      <c r="AB408" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC408" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD408" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE408" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF408" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG408" t="s" s="2">
-        <v>1082</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>74</v>
@@ -48582,10 +48593,10 @@
         <v>786</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -48611,10 +48622,10 @@
         <v>240</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="O409" s="2"/>
       <c r="P409" s="2"/>
@@ -48665,7 +48676,7 @@
         <v>76</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>74</v>
@@ -48685,10 +48696,10 @@
         <v>786</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -48788,10 +48799,10 @@
         <v>786</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -48893,10 +48904,10 @@
         <v>786</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -49000,10 +49011,10 @@
         <v>786</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -49026,13 +49037,13 @@
         <v>83</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="O413" s="2"/>
       <c r="P413" s="2"/>
@@ -49083,7 +49094,7 @@
         <v>76</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>74</v>
@@ -49103,10 +49114,10 @@
         <v>786</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -49132,10 +49143,10 @@
         <v>191</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
@@ -49186,7 +49197,7 @@
         <v>76</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>74</v>
@@ -49206,10 +49217,10 @@
         <v>786</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -49235,10 +49246,10 @@
         <v>196</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="O415" s="2"/>
       <c r="P415" s="2"/>
@@ -49289,7 +49300,7 @@
         <v>76</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>74</v>
@@ -49309,10 +49320,10 @@
         <v>786</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -49338,10 +49349,10 @@
         <v>165</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
@@ -49371,28 +49382,28 @@
         <v>228</v>
       </c>
       <c r="Z416" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="AA416" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="AB416" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC416" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD416" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE416" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF416" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG416" t="s" s="2">
         <v>1105</v>
-      </c>
-      <c r="AA416" t="s" s="2">
-        <v>1106</v>
-      </c>
-      <c r="AB416" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC416" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD416" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE416" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF416" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG416" t="s" s="2">
-        <v>1102</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>74</v>
@@ -49412,10 +49423,10 @@
         <v>786</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -49441,10 +49452,10 @@
         <v>240</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="O417" s="2"/>
       <c r="P417" s="2"/>
@@ -49495,7 +49506,7 @@
         <v>76</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>74</v>
@@ -49515,10 +49526,10 @@
         <v>786</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -49618,10 +49629,10 @@
         <v>786</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -49723,10 +49734,10 @@
         <v>786</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -49830,10 +49841,10 @@
         <v>786</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -49913,7 +49924,7 @@
         <v>76</v>
       </c>
       <c r="AG421" t="s" s="2">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="AH421" t="s" s="2">
         <v>82</v>
@@ -49933,10 +49944,10 @@
         <v>786</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -49959,16 +49970,16 @@
         <v>83</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="M422" t="s" s="2">
         <v>257</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="O422" t="s" s="2">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="P422" s="2"/>
       <c r="Q422" t="s" s="2">
@@ -50018,7 +50029,7 @@
         <v>76</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>74</v>
@@ -50035,13 +50046,13 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -50067,10 +50078,10 @@
         <v>77</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" s="2"/>
@@ -50121,7 +50132,7 @@
         <v>76</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="AH423" t="s" s="2">
         <v>74</v>
@@ -50138,13 +50149,13 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -50243,13 +50254,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -50346,13 +50357,13 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -50451,13 +50462,13 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -50556,13 +50567,13 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -50661,13 +50672,13 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
@@ -50766,13 +50777,13 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -50871,13 +50882,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -50978,13 +50989,13 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -51010,10 +51021,10 @@
         <v>140</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="O432" s="2"/>
       <c r="P432" s="2"/>
@@ -51055,7 +51066,7 @@
         <v>464</v>
       </c>
       <c r="AD432" t="s" s="2">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="AE432" t="s" s="2">
         <v>76</v>
@@ -51064,7 +51075,7 @@
         <v>154</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>74</v>
@@ -51081,16 +51092,16 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="D433" t="s" s="2">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E433" t="s" s="2">
         <v>76</v>
@@ -51115,10 +51126,10 @@
         <v>734</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="O433" s="2"/>
       <c r="P433" s="2"/>
@@ -51169,7 +51180,7 @@
         <v>76</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>74</v>
@@ -51186,13 +51197,13 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -51289,13 +51300,13 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
@@ -51394,13 +51405,13 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -51501,13 +51512,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -51608,13 +51619,13 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -51659,7 +51670,7 @@
         <v>76</v>
       </c>
       <c r="T438" t="s" s="2">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="U438" t="s" s="2">
         <v>180</v>
@@ -51715,13 +51726,13 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
@@ -51820,13 +51831,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -51923,13 +51934,13 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -52028,16 +52039,16 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="D442" t="s" s="2">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="E442" t="s" s="2">
         <v>76</v>
@@ -52062,10 +52073,10 @@
         <v>734</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="O442" s="2"/>
       <c r="P442" s="2"/>
@@ -52116,7 +52127,7 @@
         <v>76</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>74</v>
@@ -52133,13 +52144,13 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -52236,13 +52247,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -52341,13 +52352,13 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
@@ -52448,13 +52459,13 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -52555,13 +52566,13 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -52662,13 +52673,13 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
@@ -52767,13 +52778,13 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
@@ -52870,13 +52881,13 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -52975,13 +52986,13 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -53007,10 +53018,10 @@
         <v>183</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="N451" t="s" s="2">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="O451" s="2"/>
       <c r="P451" s="2"/>
@@ -53061,7 +53072,7 @@
         <v>76</v>
       </c>
       <c r="AG451" t="s" s="2">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="AH451" t="s" s="2">
         <v>74</v>
@@ -53078,13 +53089,13 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -53110,10 +53121,10 @@
         <v>165</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="O452" s="2"/>
       <c r="P452" s="2"/>
@@ -53143,28 +53154,28 @@
         <v>228</v>
       </c>
       <c r="Z452" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="AA452" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="AB452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG452" t="s" s="2">
         <v>1175</v>
-      </c>
-      <c r="AA452" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="AB452" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC452" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD452" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE452" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF452" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG452" t="s" s="2">
-        <v>1172</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>74</v>
@@ -53181,13 +53192,13 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -53213,10 +53224,10 @@
         <v>209</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="N453" t="s" s="2">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="O453" s="2"/>
       <c r="P453" s="2"/>
@@ -53267,7 +53278,7 @@
         <v>76</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>74</v>
@@ -53284,13 +53295,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -53316,10 +53327,10 @@
         <v>165</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="O454" s="2"/>
       <c r="P454" s="2"/>
@@ -53370,7 +53381,7 @@
         <v>76</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>74</v>
@@ -53387,13 +53398,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -53473,7 +53484,7 @@
         <v>76</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>74</v>
@@ -53490,13 +53501,13 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -53522,10 +53533,10 @@
         <v>271</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="O456" s="2"/>
       <c r="P456" s="2"/>
@@ -53576,7 +53587,7 @@
         <v>76</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="AH456" t="s" s="2">
         <v>74</v>
@@ -53593,13 +53604,13 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
@@ -53696,13 +53707,13 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -53801,13 +53812,13 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
@@ -53830,19 +53841,19 @@
         <v>83</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="O459" t="s" s="2">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="P459" t="s" s="2">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="Q459" t="s" s="2">
         <v>76</v>
@@ -53891,7 +53902,7 @@
         <v>76</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>74</v>
@@ -53908,13 +53919,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -53940,20 +53951,20 @@
         <v>102</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="N460" t="s" s="2">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="O460" s="2"/>
       <c r="P460" t="s" s="2">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="Q460" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R460" t="s" s="2">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="S460" t="s" s="2">
         <v>76</v>
@@ -53977,10 +53988,10 @@
         <v>106</v>
       </c>
       <c r="Z460" t="s" s="2">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="AA460" t="s" s="2">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="AB460" t="s" s="2">
         <v>76</v>
@@ -53998,7 +54009,7 @@
         <v>76</v>
       </c>
       <c r="AG460" t="s" s="2">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="AH460" t="s" s="2">
         <v>74</v>
@@ -54015,13 +54026,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -54047,14 +54058,14 @@
         <v>183</v>
       </c>
       <c r="M461" t="s" s="2">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="N461" t="s" s="2">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="O461" s="2"/>
       <c r="P461" t="s" s="2">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="Q461" t="s" s="2">
         <v>76</v>
@@ -54103,7 +54114,7 @@
         <v>76</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>74</v>
@@ -54120,13 +54131,13 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -54152,14 +54163,14 @@
         <v>96</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="O462" s="2"/>
       <c r="P462" t="s" s="2">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="Q462" t="s" s="2">
         <v>76</v>
@@ -54208,7 +54219,7 @@
         <v>76</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>74</v>
@@ -54217,7 +54228,7 @@
         <v>82</v>
       </c>
       <c r="AJ462" t="s" s="2">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="AK462" t="s" s="2">
         <v>94</v>
@@ -54225,13 +54236,13 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -54257,16 +54268,16 @@
         <v>102</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="O463" t="s" s="2">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="P463" t="s" s="2">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="Q463" t="s" s="2">
         <v>76</v>
@@ -54313,7 +54324,7 @@
         <v>76</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>74</v>
@@ -54322,7 +54333,7 @@
         <v>82</v>
       </c>
       <c r="AJ463" t="s" s="2">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="AK463" t="s" s="2">
         <v>94</v>
@@ -54330,13 +54341,13 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -54362,10 +54373,10 @@
         <v>236</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="O464" s="2"/>
       <c r="P464" s="2"/>
@@ -54416,7 +54427,7 @@
         <v>76</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>74</v>
@@ -54433,13 +54444,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
@@ -54465,10 +54476,10 @@
         <v>240</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="O465" s="2"/>
       <c r="P465" s="2"/>
@@ -54519,7 +54530,7 @@
         <v>76</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>74</v>
@@ -54536,13 +54547,13 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -54639,13 +54650,13 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -54744,13 +54755,13 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -54851,13 +54862,13 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -54883,10 +54894,10 @@
         <v>165</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="O469" s="2"/>
       <c r="P469" s="2"/>
@@ -54916,28 +54927,28 @@
         <v>228</v>
       </c>
       <c r="Z469" t="s" s="2">
+        <v>1236</v>
+      </c>
+      <c r="AA469" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="AB469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG469" t="s" s="2">
         <v>1233</v>
-      </c>
-      <c r="AA469" t="s" s="2">
-        <v>1234</v>
-      </c>
-      <c r="AB469" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC469" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD469" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE469" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF469" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG469" t="s" s="2">
-        <v>1230</v>
       </c>
       <c r="AH469" t="s" s="2">
         <v>74</v>
@@ -54954,13 +54965,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -54986,10 +54997,10 @@
         <v>165</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
@@ -55040,7 +55051,7 @@
         <v>76</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>74</v>
@@ -55057,13 +55068,13 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -55089,7 +55100,7 @@
         <v>589</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="N471" t="s" s="2">
         <v>591</v>
@@ -55143,7 +55154,7 @@
         <v>76</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>74</v>
@@ -55160,13 +55171,13 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -55263,13 +55274,13 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -55368,13 +55379,13 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
@@ -55458,7 +55469,7 @@
         <v>76</v>
       </c>
       <c r="AG474" t="s" s="2">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="AH474" t="s" s="2">
         <v>74</v>
@@ -55475,13 +55486,13 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
@@ -55507,10 +55518,10 @@
         <v>165</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="N475" t="s" s="2">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="O475" s="2"/>
       <c r="P475" s="2"/>
@@ -55561,7 +55572,7 @@
         <v>76</v>
       </c>
       <c r="AG475" t="s" s="2">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AH475" t="s" s="2">
         <v>74</v>
@@ -55578,13 +55589,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -55610,10 +55621,10 @@
         <v>165</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
@@ -55664,7 +55675,7 @@
         <v>76</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="AH476" t="s" s="2">
         <v>74</v>
@@ -55681,13 +55692,13 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -55749,7 +55760,7 @@
       </c>
       <c r="Z477" s="2"/>
       <c r="AA477" t="s" s="2">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="AB477" t="s" s="2">
         <v>76</v>
@@ -55767,7 +55778,7 @@
         <v>76</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>82</v>
@@ -55784,13 +55795,13 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -55816,10 +55827,10 @@
         <v>191</v>
       </c>
       <c r="M478" t="s" s="2">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="N478" t="s" s="2">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
@@ -55870,7 +55881,7 @@
         <v>76</v>
       </c>
       <c r="AG478" t="s" s="2">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="AH478" t="s" s="2">
         <v>74</v>
@@ -55887,13 +55898,13 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -55919,10 +55930,10 @@
         <v>695</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="O479" s="2"/>
       <c r="P479" s="2"/>
@@ -55973,7 +55984,7 @@
         <v>76</v>
       </c>
       <c r="AG479" t="s" s="2">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="AH479" t="s" s="2">
         <v>74</v>
@@ -55990,13 +56001,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -56022,10 +56033,10 @@
         <v>368</v>
       </c>
       <c r="M480" t="s" s="2">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="N480" t="s" s="2">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="O480" s="2"/>
       <c r="P480" s="2"/>
@@ -56033,52 +56044,52 @@
         <v>76</v>
       </c>
       <c r="R480" t="s" s="2">
+        <v>1267</v>
+      </c>
+      <c r="S480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG480" t="s" s="2">
         <v>1264</v>
-      </c>
-      <c r="S480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG480" t="s" s="2">
-        <v>1261</v>
       </c>
       <c r="AH480" t="s" s="2">
         <v>74</v>
@@ -56095,13 +56106,13 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -56127,10 +56138,10 @@
         <v>196</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="N481" t="s" s="2">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="O481" s="2"/>
       <c r="P481" s="2"/>
@@ -56181,7 +56192,7 @@
         <v>76</v>
       </c>
       <c r="AG481" t="s" s="2">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="AH481" t="s" s="2">
         <v>74</v>
@@ -56198,13 +56209,13 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -56230,10 +56241,10 @@
         <v>759</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="N482" t="s" s="2">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
@@ -56284,7 +56295,7 @@
         <v>76</v>
       </c>
       <c r="AG482" t="s" s="2">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="AH482" t="s" s="2">
         <v>74</v>
@@ -56301,13 +56312,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -56333,10 +56344,10 @@
         <v>240</v>
       </c>
       <c r="M483" t="s" s="2">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="N483" t="s" s="2">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="O483" s="2"/>
       <c r="P483" s="2"/>
@@ -56387,7 +56398,7 @@
         <v>76</v>
       </c>
       <c r="AG483" t="s" s="2">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="AH483" t="s" s="2">
         <v>74</v>
@@ -56404,13 +56415,13 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -56507,13 +56518,13 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -56612,13 +56623,13 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -56719,13 +56730,13 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -56751,10 +56762,10 @@
         <v>734</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="N487" t="s" s="2">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="O487" s="2"/>
       <c r="P487" s="2"/>
@@ -56805,7 +56816,7 @@
         <v>76</v>
       </c>
       <c r="AG487" t="s" s="2">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="AH487" t="s" s="2">
         <v>74</v>
@@ -56822,13 +56833,13 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -56854,7 +56865,7 @@
         <v>214</v>
       </c>
       <c r="M488" t="s" s="2">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="N488" t="s" s="2">
         <v>216</v>
@@ -56890,7 +56901,7 @@
       </c>
       <c r="Z488" s="2"/>
       <c r="AA488" t="s" s="2">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="AB488" t="s" s="2">
         <v>76</v>
@@ -56908,7 +56919,7 @@
         <v>76</v>
       </c>
       <c r="AG488" t="s" s="2">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="AH488" t="s" s="2">
         <v>74</v>
@@ -56925,13 +56936,13 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" t="s" s="2">
@@ -56957,10 +56968,10 @@
         <v>368</v>
       </c>
       <c r="M489" t="s" s="2">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="N489" t="s" s="2">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="O489" s="2"/>
       <c r="P489" s="2"/>
@@ -56968,52 +56979,52 @@
         <v>76</v>
       </c>
       <c r="R489" t="s" s="2">
+        <v>1289</v>
+      </c>
+      <c r="S489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG489" t="s" s="2">
         <v>1286</v>
-      </c>
-      <c r="S489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF489" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG489" t="s" s="2">
-        <v>1283</v>
       </c>
       <c r="AH489" t="s" s="2">
         <v>74</v>
@@ -57030,13 +57041,13 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" t="s" s="2">
@@ -57059,13 +57070,13 @@
         <v>83</v>
       </c>
       <c r="L490" t="s" s="2">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="M490" t="s" s="2">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="N490" t="s" s="2">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="O490" s="2"/>
       <c r="P490" s="2"/>
@@ -57116,7 +57127,7 @@
         <v>76</v>
       </c>
       <c r="AG490" t="s" s="2">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="AH490" t="s" s="2">
         <v>74</v>
@@ -57133,13 +57144,13 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" t="s" s="2">
@@ -57165,10 +57176,10 @@
         <v>165</v>
       </c>
       <c r="M491" t="s" s="2">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="N491" t="s" s="2">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="O491" s="2"/>
       <c r="P491" s="2"/>
@@ -57198,28 +57209,28 @@
         <v>228</v>
       </c>
       <c r="Z491" t="s" s="2">
+        <v>1297</v>
+      </c>
+      <c r="AA491" t="s" s="2">
+        <v>1298</v>
+      </c>
+      <c r="AB491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG491" t="s" s="2">
         <v>1294</v>
-      </c>
-      <c r="AA491" t="s" s="2">
-        <v>1295</v>
-      </c>
-      <c r="AB491" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC491" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD491" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE491" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF491" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG491" t="s" s="2">
-        <v>1291</v>
       </c>
       <c r="AH491" t="s" s="2">
         <v>74</v>
@@ -57236,13 +57247,13 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
@@ -57268,10 +57279,10 @@
         <v>165</v>
       </c>
       <c r="M492" t="s" s="2">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="N492" t="s" s="2">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="O492" s="2"/>
       <c r="P492" s="2"/>
@@ -57301,10 +57312,10 @@
         <v>228</v>
       </c>
       <c r="Z492" t="s" s="2">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="AA492" t="s" s="2">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="AB492" t="s" s="2">
         <v>76</v>
@@ -57322,7 +57333,7 @@
         <v>76</v>
       </c>
       <c r="AG492" t="s" s="2">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="AH492" t="s" s="2">
         <v>74</v>
@@ -57339,13 +57350,13 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
@@ -57368,13 +57379,13 @@
         <v>83</v>
       </c>
       <c r="L493" t="s" s="2">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="M493" t="s" s="2">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="N493" t="s" s="2">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="O493" s="2"/>
       <c r="P493" s="2"/>
@@ -57425,7 +57436,7 @@
         <v>76</v>
       </c>
       <c r="AG493" t="s" s="2">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="AH493" t="s" s="2">
         <v>74</v>
@@ -57442,13 +57453,13 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
@@ -57474,10 +57485,10 @@
         <v>196</v>
       </c>
       <c r="M494" t="s" s="2">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="N494" t="s" s="2">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
@@ -57528,7 +57539,7 @@
         <v>76</v>
       </c>
       <c r="AG494" t="s" s="2">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="AH494" t="s" s="2">
         <v>74</v>
@@ -57545,13 +57556,13 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -57631,7 +57642,7 @@
         <v>76</v>
       </c>
       <c r="AG495" t="s" s="2">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="AH495" t="s" s="2">
         <v>74</v>
@@ -57648,13 +57659,13 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -57751,13 +57762,13 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
@@ -57856,13 +57867,13 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" t="s" s="2">
@@ -57963,13 +57974,13 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
@@ -58049,7 +58060,7 @@
         <v>76</v>
       </c>
       <c r="AG499" t="s" s="2">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="AH499" t="s" s="2">
         <v>82</v>
@@ -58066,13 +58077,13 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
@@ -58095,7 +58106,7 @@
         <v>83</v>
       </c>
       <c r="L500" t="s" s="2">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="M500" t="s" s="2">
         <v>257</v>
@@ -58152,7 +58163,7 @@
         <v>76</v>
       </c>
       <c r="AG500" t="s" s="2">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="AH500" t="s" s="2">
         <v>74</v>
@@ -58169,13 +58180,13 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
@@ -58201,10 +58212,10 @@
         <v>240</v>
       </c>
       <c r="M501" t="s" s="2">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="N501" t="s" s="2">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="O501" s="2"/>
       <c r="P501" s="2"/>
@@ -58255,7 +58266,7 @@
         <v>76</v>
       </c>
       <c r="AG501" t="s" s="2">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="AH501" t="s" s="2">
         <v>74</v>
@@ -58272,13 +58283,13 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
@@ -58375,13 +58386,13 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" t="s" s="2">
@@ -58480,13 +58491,13 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" t="s" s="2">
@@ -58587,13 +58598,13 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" t="s" s="2">
@@ -58616,13 +58627,13 @@
         <v>83</v>
       </c>
       <c r="L505" t="s" s="2">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="M505" t="s" s="2">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="N505" t="s" s="2">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="O505" s="2"/>
       <c r="P505" s="2"/>
@@ -58673,7 +58684,7 @@
         <v>76</v>
       </c>
       <c r="AG505" t="s" s="2">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="AH505" t="s" s="2">
         <v>82</v>
@@ -58690,13 +58701,13 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" t="s" s="2">
@@ -58722,10 +58733,10 @@
         <v>271</v>
       </c>
       <c r="M506" t="s" s="2">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="N506" t="s" s="2">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="O506" s="2"/>
       <c r="P506" s="2"/>
@@ -58776,7 +58787,7 @@
         <v>76</v>
       </c>
       <c r="AG506" t="s" s="2">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="AH506" t="s" s="2">
         <v>74</v>
@@ -58793,13 +58804,13 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" t="s" s="2">
@@ -58896,13 +58907,13 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" t="s" s="2">
@@ -59001,13 +59012,13 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" t="s" s="2">
@@ -59030,19 +59041,19 @@
         <v>83</v>
       </c>
       <c r="L509" t="s" s="2">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="M509" t="s" s="2">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="N509" t="s" s="2">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="O509" t="s" s="2">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="P509" t="s" s="2">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="Q509" t="s" s="2">
         <v>76</v>
@@ -59091,7 +59102,7 @@
         <v>76</v>
       </c>
       <c r="AG509" t="s" s="2">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="AH509" t="s" s="2">
         <v>74</v>
@@ -59108,13 +59119,13 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" t="s" s="2">
@@ -59140,20 +59151,20 @@
         <v>102</v>
       </c>
       <c r="M510" t="s" s="2">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="N510" t="s" s="2">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="O510" s="2"/>
       <c r="P510" t="s" s="2">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="Q510" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R510" t="s" s="2">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="S510" t="s" s="2">
         <v>76</v>
@@ -59177,10 +59188,10 @@
         <v>106</v>
       </c>
       <c r="Z510" t="s" s="2">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="AA510" t="s" s="2">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="AB510" t="s" s="2">
         <v>76</v>
@@ -59198,7 +59209,7 @@
         <v>76</v>
       </c>
       <c r="AG510" t="s" s="2">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="AH510" t="s" s="2">
         <v>74</v>
@@ -59215,13 +59226,13 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" t="s" s="2">
@@ -59247,14 +59258,14 @@
         <v>183</v>
       </c>
       <c r="M511" t="s" s="2">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="N511" t="s" s="2">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="O511" s="2"/>
       <c r="P511" t="s" s="2">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="Q511" t="s" s="2">
         <v>76</v>
@@ -59303,7 +59314,7 @@
         <v>76</v>
       </c>
       <c r="AG511" t="s" s="2">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="AH511" t="s" s="2">
         <v>74</v>
@@ -59320,13 +59331,13 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" t="s" s="2">
@@ -59352,14 +59363,14 @@
         <v>96</v>
       </c>
       <c r="M512" t="s" s="2">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="N512" t="s" s="2">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="O512" s="2"/>
       <c r="P512" t="s" s="2">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="Q512" t="s" s="2">
         <v>76</v>
@@ -59408,7 +59419,7 @@
         <v>76</v>
       </c>
       <c r="AG512" t="s" s="2">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="AH512" t="s" s="2">
         <v>74</v>
@@ -59417,7 +59428,7 @@
         <v>82</v>
       </c>
       <c r="AJ512" t="s" s="2">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="AK512" t="s" s="2">
         <v>94</v>
@@ -59425,13 +59436,13 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" t="s" s="2">
@@ -59457,16 +59468,16 @@
         <v>102</v>
       </c>
       <c r="M513" t="s" s="2">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="N513" t="s" s="2">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="O513" t="s" s="2">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="P513" t="s" s="2">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="Q513" t="s" s="2">
         <v>76</v>
@@ -59495,7 +59506,7 @@
       </c>
       <c r="Z513" s="2"/>
       <c r="AA513" t="s" s="2">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="AB513" t="s" s="2">
         <v>76</v>
@@ -59513,7 +59524,7 @@
         <v>76</v>
       </c>
       <c r="AG513" t="s" s="2">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="AH513" t="s" s="2">
         <v>74</v>
@@ -59522,7 +59533,7 @@
         <v>82</v>
       </c>
       <c r="AJ513" t="s" s="2">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="AK513" t="s" s="2">
         <v>94</v>
@@ -59530,13 +59541,13 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" t="s" s="2">
@@ -59562,10 +59573,10 @@
         <v>77</v>
       </c>
       <c r="M514" t="s" s="2">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="N514" t="s" s="2">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="O514" s="2"/>
       <c r="P514" s="2"/>
@@ -59616,7 +59627,7 @@
         <v>76</v>
       </c>
       <c r="AG514" t="s" s="2">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="AH514" t="s" s="2">
         <v>74</v>
@@ -59633,13 +59644,13 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" t="s" s="2">
@@ -59665,10 +59676,10 @@
         <v>77</v>
       </c>
       <c r="M515" t="s" s="2">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="N515" t="s" s="2">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="O515" s="2"/>
       <c r="P515" s="2"/>
@@ -59719,7 +59730,7 @@
         <v>76</v>
       </c>
       <c r="AG515" t="s" s="2">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="AH515" t="s" s="2">
         <v>74</v>
@@ -59842,10 +59853,10 @@
         <v>345</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" t="s" s="2">
@@ -59945,10 +59956,10 @@
         <v>345</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" t="s" s="2">
@@ -59977,7 +59988,7 @@
         <v>347</v>
       </c>
       <c r="N518" t="s" s="2">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="O518" s="2"/>
       <c r="P518" s="2"/>
@@ -60048,10 +60059,10 @@
         <v>345</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -60077,13 +60088,13 @@
         <v>96</v>
       </c>
       <c r="M519" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="O519" t="s" s="2">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="P519" s="2"/>
       <c r="Q519" t="s" s="2">
@@ -60091,7 +60102,7 @@
       </c>
       <c r="R519" s="2"/>
       <c r="S519" t="s" s="2">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="T519" t="s" s="2">
         <v>76</v>
@@ -60133,7 +60144,7 @@
         <v>76</v>
       </c>
       <c r="AG519" t="s" s="2">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="AH519" t="s" s="2">
         <v>82</v>
@@ -60153,10 +60164,10 @@
         <v>345</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -60182,10 +60193,10 @@
         <v>183</v>
       </c>
       <c r="M520" t="s" s="2">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="N520" t="s" s="2">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="O520" s="2"/>
       <c r="P520" s="2"/>
@@ -60236,7 +60247,7 @@
         <v>76</v>
       </c>
       <c r="AG520" t="s" s="2">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="AH520" t="s" s="2">
         <v>74</v>
@@ -60245,7 +60256,7 @@
         <v>82</v>
       </c>
       <c r="AJ520" t="s" s="2">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="AK520" t="s" s="2">
         <v>94</v>
